--- a/tradept/Excel/Localization/Main/english/D道具列表_Items_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/D道具列表_Items_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\sands-of-salzaar-traducao-portugues-brasileiro\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A372C4-AD8B-4CD0-B943-ADCFC0DFC11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFFED0D-47AE-4603-B8F1-5F73B615FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -311,10 +311,10 @@
     <t>传说中可以找到将军骑士纪念碑的地图的残页。你需要左半边才可以拼出一幅完整的地图。(右键查看地图）</t>
   </si>
   <si>
-    <t>Fragmento Mágico de Cristal</t>
-  </si>
-  <si>
-    <t>Fragmento do Livro de Fogo</t>
+    <t>Fragmento de Cristal Mágico</t>
+  </si>
+  <si>
+    <t>Fragmento do Livro do Fogo</t>
   </si>
   <si>
     <t>Cidade dos Camelos</t>
@@ -341,7 +341,7 @@
     <t>Pergaminho de Retorno Permanente</t>
   </si>
   <si>
-    <t>Medicina do Servo de Ouma</t>
+    <t>Remédio do Servo de Ouma</t>
   </si>
   <si>
     <t>Cristal Misterioso</t>
@@ -356,13 +356,13 @@
     <t>Núcleo do Conquistador</t>
   </si>
   <si>
-    <t>Cristal de Sangue Negro</t>
+    <t>Cristal Sangue-Negro</t>
   </si>
   <si>
     <t>Cristal Arcano</t>
   </si>
   <si>
-    <t>Frasco Estranho</t>
+    <t>Garrafa Estranha</t>
   </si>
   <si>
     <t>Rosa Branca Comum</t>
@@ -374,31 +374,31 @@
     <t>Rosa Branca Arcana</t>
   </si>
   <si>
-    <t>Livro de Fogo</t>
-  </si>
-  <si>
-    <t>Pergaminho da Receita do Elixir</t>
-  </si>
-  <si>
-    <t>Guia para Iniciantes</t>
+    <t>Velho Livro de Ifrit</t>
+  </si>
+  <si>
+    <t>Foice de Ifrit</t>
+  </si>
+  <si>
+    <t>Livro do Fogo</t>
+  </si>
+  <si>
+    <t>Pergaminho de Receita de Elixir</t>
+  </si>
+  <si>
+    <t>Guia do Iniciante</t>
   </si>
   <si>
     <t>Memórias de um Veterano</t>
   </si>
   <si>
-    <t>Fragmento de Mapa (Esquerdo)</t>
-  </si>
-  <si>
-    <t>Fragmento de Mapa (Direito)</t>
-  </si>
-  <si>
-    <t>Antigo Livro do Ifrit</t>
-  </si>
-  <si>
-    <t>Foice do Ifrit</t>
-  </si>
-  <si>
-    <t>Os restos de um manuscrito mágico. Ainda é possível sentir o poder pulsando através de suas páginas.</t>
+    <t>Fragmento de Mapa (Esquerda)</t>
+  </si>
+  <si>
+    <t>Fragmento de Mapa (Direita)</t>
+  </si>
+  <si>
+    <t>Os fragmentos de um manuscrito mágico. Você ainda sente o poder pulsando em suas páginas.</t>
   </si>
   <si>
     <t>Uma história da Cidade de Jamal.</t>
@@ -413,22 +413,22 @@
     <t>O diário de um prisioneiro.</t>
   </si>
   <si>
-    <t>Um cimitarra mística que nasceu dos sonhos da Deusa do Rio.</t>
-  </si>
-  <si>
-    <t>Roupas rasgadas com um forte cheiro.</t>
-  </si>
-  <si>
-    <t>Um tronco resistente de uma palmeira.</t>
-  </si>
-  <si>
-    <t>Um pergaminho que te retorna à sua área original com usos ilimitados. Leva muito tempo para conjurar.</t>
-  </si>
-  <si>
-    <t>O servo de Ouma espera que você entregue esta garrafa de remédio para o povo da Vila Nebulosa. (Item de missão)</t>
-  </si>
-  <si>
-    <t>Este estranho cristal está cheio de arcanos antigos de Nemishi. Qual seria o seu propósito?</t>
+    <t>Uma cimitarra mística nascida dos sonhos da Deusa do Rio.</t>
+  </si>
+  <si>
+    <t>Roupas esfarrapadas com um forte odor.</t>
+  </si>
+  <si>
+    <t>Um tronco resistente de palmeira.</t>
+  </si>
+  <si>
+    <t>Um pergaminho que retorna você à sua área original com usos ilimitados. Demora muito para ser conjurado.</t>
+  </si>
+  <si>
+    <t>O servo de Ouma espera que você entregue esta garrafa de remédio ao povo da Vila Nebulosa. (Item de missão)</t>
+  </si>
+  <si>
+    <t>Este cristal estranho está repleto da arcana ancestral dos Nemishi. Que propósito poderia ter?</t>
   </si>
   <si>
     <t>Memórias dos Nemishi.</t>
@@ -437,49 +437,49 @@
     <t>Um retrato realista da Princesa Ilayda.</t>
   </si>
   <si>
-    <t>Usado para aumentar permanentemente o Ataque do seu personagem principal em 1.</t>
+    <t>Use para aumentar permanentemente o Ataque do seu personagem principal em 1.</t>
   </si>
   <si>
     <t>Um tesouro misterioso que dizem conter uma estranha maldição.</t>
   </si>
   <si>
-    <t>O comerciante de quem você comprou este cristal disse que ele contém um poder imenso que só pode ser ativado na Miragem da Floresta.</t>
-  </si>
-  <si>
-    <t>Duas crianças no posto sul da Cidade de Cotta entregaram a você esta estranha garrafa para jogar no Vazio de Lava Pāhoehoe. Dizem que há uma alma presa dentro dela.</t>
-  </si>
-  <si>
-    <t>A rosa branca mais comum usada pela Sociedade da Rosa Branca para criar suas poções.</t>
-  </si>
-  <si>
-    <t>Uma rosa branca premium usada pela Sociedade da Rosa Branca para criar suas poções.</t>
-  </si>
-  <si>
-    <t>Uma rosa branca encantada com arcanos usada pela Sociedade da Rosa Branca para criar suas poções.</t>
-  </si>
-  <si>
-    <t>Um livro antigo Ifrit que contém inúmeros textos ilegíveis.</t>
-  </si>
-  <si>
-    <t>Um livro que detalha alguns dos arcanos mais poderosos da história, escrito pelo Mestre das Chamas Ifrit. Parte de sua alma está selada dentro.</t>
-  </si>
-  <si>
-    <t>Nascido acima das chamas, entoa as canções do fogo arcano! Equipe-o para invocar o Mestre Ifrit das Chamas para lutar ao seu lado.</t>
-  </si>
-  <si>
-    <t>Este pergaminho contém receitas para várias poções e elixires.</t>
+    <t>O comerciante que lhe vendeu este cristal disse que ele contém um poder imenso, que só pode ser ativado na Miragem da Floresta.</t>
+  </si>
+  <si>
+    <t>Duas crianças no posto avançado sul da Cidade de Cotta lhe entregaram esta garrafa estranha para lançar no Vazio de Lava Pāhoehoe. Elas dizem que há uma alma presa dentro.</t>
+  </si>
+  <si>
+    <t>A mais comum das rosas brancas, usada pela Sociedade da Rosa Branca para fabricar suas poções.</t>
+  </si>
+  <si>
+    <t>Uma rosa branca premium usada pela Sociedade da Rosa Branca para fabricar suas poções.</t>
+  </si>
+  <si>
+    <t>Uma rosa branca encantada com arcana, usada pela Sociedade da Rosa Branca para fabricar suas poções.</t>
+  </si>
+  <si>
+    <t>Um velho livro de Ifrit que contém inúmeros textos ilegíveis.</t>
+  </si>
+  <si>
+    <t>Um livro que detalha algumas das arcanas mais poderosas da história, escrito pelo Mestre das Chamas Ifrit. Parte de sua alma está selada dentro dele.</t>
+  </si>
+  <si>
+    <t>Nascida nas chamas, ela entoa os cânticos do fogo arcano! Equipe-a para invocar o Mestre das Chamas Ifrit para lutar ao seu lado.</t>
+  </si>
+  <si>
+    <t>Este pergaminho contém receitas para diversas poções e elixires.</t>
   </si>
   <si>
     <t>Um guia para iniciantes.</t>
   </si>
   <si>
-    <t>Você pessoalmente registrou a história trágica de um veterano que sobreviveu à Batalha do Sol Negro. Você pode presentear isso a outros.</t>
-  </si>
-  <si>
-    <t>Dizem que este mapa leva ao monumento do mítico General Cavaleiro. Você precisa da metade direita do mapa para ter a imagem completa.</t>
-  </si>
-  <si>
-    <t>Dizem que este mapa leva ao monumento do mítico General Cavaleiro. Você precisa da metade esquerda do mapa para ter a imagem completa.</t>
+    <t>Você mesmo registrou a trágica história de um veterano que sobreviveu à Batalha do Sol Negro. Pode entregá-la a outros como presente.</t>
+  </si>
+  <si>
+    <t>Diz-se que este mapa leva ao monumento do lendário General Cavaleiro. Você precisa da metade direita do mapa para ter a imagem completa.</t>
+  </si>
+  <si>
+    <t>Diz-se que este mapa leva ao monumento do lendário General Cavaleiro. Você precisa da metade esquerda do mapa para ter a imagem completa.</t>
   </si>
 </sst>
 </file>
@@ -1077,14 +1077,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="162.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1484,7 +1484,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>59</v>
@@ -1552,7 +1552,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>66</v>
@@ -1569,7 +1569,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>69</v>
@@ -1592,7 +1592,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>72</v>
@@ -1609,7 +1609,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>74</v>
@@ -1626,7 +1626,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D31" s="20"/>
       <c r="F31" s="21" t="s">
@@ -1644,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" s="20"/>
       <c r="F32" s="21" t="s">
@@ -1662,7 +1662,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D33" s="20"/>
       <c r="F33" s="21" t="s">
